--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.16.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.16.xlsx
@@ -79,66 +79,72 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>אתה בחדר הנכון.</t>
   </si>
   <si>
-    <t>agree</t>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>שלום לך קוראים לי דוק.</t>
+  </si>
+  <si>
+    <t>דוק.</t>
+  </si>
+  <si>
+    <t>סוס זה שם פרטי.</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>איך השם?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>סוס, סוס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סוס. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">דוק זה שם משפחה </t>
+  </si>
+  <si>
+    <t>כן, אני אחד הרופאים מהמחלקה.</t>
+  </si>
+  <si>
+    <t>אוקיי בסדר.</t>
+  </si>
+  <si>
+    <t>איך את מרגישה היום?</t>
+  </si>
+  <si>
+    <t>אא אני פחות חשוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> איך יואב מרגיש עכשיו, זה הכי חשוב.</t>
+  </si>
+  <si>
+    <t>אני באתי לפה בקשר ליואב.</t>
+  </si>
+  <si>
+    <t>כן, מה בסוף?</t>
+  </si>
+  <si>
+    <t>אא אני רציתי לשאול, מה היה לו בשבוע האחרון?</t>
+  </si>
+  <si>
+    <t>לא. אני חשבתי שאתם תגידו לי מה איתו.</t>
   </si>
   <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>שלום לך קוראים לי דוק.</t>
-  </si>
-  <si>
-    <t>דוק.</t>
-  </si>
-  <si>
-    <t>סוס זה שם פרטי.</t>
-  </si>
-  <si>
-    <t>איך השם?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>סוס, סוס.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סוס. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">דוק זה שם משפחה </t>
-  </si>
-  <si>
-    <t>כן, אני אחד הרופאים מהמחלקה.</t>
-  </si>
-  <si>
-    <t>אוקיי בסדר.</t>
-  </si>
-  <si>
-    <t>איך את מרגישה היום?</t>
-  </si>
-  <si>
-    <t>אא אני פחות חשוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> איך יואב מרגיש עכשיו, זה הכי חשוב.</t>
-  </si>
-  <si>
-    <t>אני באתי לפה בקשר ליואב.</t>
-  </si>
-  <si>
-    <t>כן, מה בסוף?</t>
-  </si>
-  <si>
-    <t>אא אני רציתי לשאול, מה היה לו בשבוע האחרון?</t>
-  </si>
-  <si>
-    <t>לא. אני חשבתי שאתם תגידו לי מה איתו.</t>
-  </si>
-  <si>
     <t>לא, אני רוצה לשמוע את אא... עוד פעם...</t>
   </si>
   <si>
@@ -148,9 +154,6 @@
     <t>אין אין שום דבר או חדש. אמרתי הוא היה אמרתי לכם הוא בא ב... עם וירוס בבטן.</t>
   </si>
   <si>
-    <t>gives-med</t>
-  </si>
-  <si>
     <t>כן,</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">ואני דואגת נורא. פחדתי שהוא יתעלף או יתייבש או ... </t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">זה וירוס כן. </t>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -932,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -988,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -996,13 +996,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1265,7 +1265,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1310,7 +1310,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1335,10 +1335,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1363,10 +1363,10 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1377,10 +1377,10 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1422,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1517,10 +1517,10 @@
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1531,7 +1531,7 @@
         <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1562,7 +1562,7 @@
         <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1587,7 +1587,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1604,7 +1604,7 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1632,7 +1632,7 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1699,10 +1699,10 @@
         <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1713,10 +1713,10 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1741,10 +1741,10 @@
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1769,10 +1769,10 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1839,7 +1839,7 @@
         <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1853,10 +1853,10 @@
         <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1867,10 +1867,10 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -1895,10 +1895,10 @@
         <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1909,7 +1909,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1923,7 +1923,7 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1937,7 +1937,7 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -1951,10 +1951,10 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1965,10 +1965,10 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1979,7 +1979,7 @@
         <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -1993,10 +1993,10 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2035,7 +2035,7 @@
         <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2052,7 +2052,7 @@
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2063,10 +2063,10 @@
         <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2077,7 +2077,7 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2091,7 +2091,7 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2105,7 +2105,7 @@
         <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2119,7 +2119,7 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2133,7 +2133,7 @@
         <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2175,7 +2175,7 @@
         <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2203,10 +2203,10 @@
         <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2231,10 +2231,10 @@
         <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2245,7 +2245,7 @@
         <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2259,7 +2259,7 @@
         <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2273,10 +2273,10 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2301,7 +2301,7 @@
         <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -2318,7 +2318,7 @@
         <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2357,10 +2357,10 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2371,7 +2371,7 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
         <v>55</v>
@@ -2385,10 +2385,10 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2399,10 +2399,10 @@
         <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2416,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2427,10 +2427,10 @@
         <v>141</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -2455,10 +2455,10 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2483,7 +2483,7 @@
         <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -2514,7 +2514,7 @@
         <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -2525,10 +2525,10 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
